--- a/biology/Zoologie/Fluke_(film)/Fluke_(film).xlsx
+++ b/biology/Zoologie/Fluke_(film)/Fluke_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fluke est un film américain sorti en 1995 aux États-Unis et en France, réalisé par Carlo Carlei.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tom et Jeff, amis et partenaires de travail, participent malgré eux à une course de voitures dans laquelle Tom trouve la mort. Réincarné en un chien surnommé Fluke, il cherche à savoir pourquoi son meilleur ami a provoqué sa mort. Mais il se rendra compte que l'histoire qu'il croyait être juste, s'avère être plus différente.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Carlo Carlei
 Scénario : Carlo Carlei et James Carrington
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Matthew Modine (VF : Bernard Gabay) (VQ : Pierre Auger) : Thomas P. Johnson / Fluke (voix)
 Nancy Travis (VF : Rafaèle Moutier) (VQ : Johanne Léveillé) : Carol Johnson
